--- a/项目文档/数据库/数据库字段.xlsx
+++ b/项目文档/数据库/数据库字段.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\githubproject\FancyBBS\项目文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\githubproject\FancyBBS\项目文档\数据库\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="118">
   <si>
     <t>字段名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,10 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NULL(Y/N)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -134,10 +130,6 @@
   </si>
   <si>
     <t>用户编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1为游客，2为会员，3为管理员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -361,14 +353,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>所在版块ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BRSId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>发帖人ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -428,10 +412,6 @@
   </si>
   <si>
     <t>点击量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游客、会员、管理员判断</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -613,6 +593,14 @@
   </si>
   <si>
     <t>fancybbs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员、管理员判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1为会员，2为管理员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1014,7 +1002,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1029,7 +1017,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -1037,7 +1025,7 @@
     </row>
     <row r="3" spans="1:10" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="11" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -1076,13 +1064,13 @@
         <v>2</v>
       </c>
       <c r="G5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="I5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>3</v>
@@ -1093,10 +1081,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>6</v>
@@ -1105,16 +1093,16 @@
         <v>12</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -1125,23 +1113,23 @@
         <v>7</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -1149,24 +1137,24 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -1177,21 +1165,21 @@
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -1202,13 +1190,13 @@
         <v>9</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1223,19 +1211,19 @@
         <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
@@ -1243,16 +1231,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1267,10 +1255,10 @@
         <v>11</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>12</v>
@@ -1278,10 +1266,10 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
@@ -1289,21 +1277,21 @@
         <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J14" s="2"/>
     </row>
@@ -1312,22 +1300,22 @@
         <v>10</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
@@ -1335,16 +1323,16 @@
         <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -1356,16 +1344,16 @@
         <v>12</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -1404,7 +1392,7 @@
   <sheetData>
     <row r="3" spans="2:10" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="11" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -1443,13 +1431,13 @@
         <v>2</v>
       </c>
       <c r="G5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="I5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>3</v>
@@ -1460,28 +1448,28 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
@@ -1489,24 +1477,24 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.15">
@@ -1514,26 +1502,26 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
@@ -1541,24 +1529,24 @@
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.15">
@@ -1566,16 +1554,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1587,16 +1575,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1608,16 +1596,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -1629,16 +1617,16 @@
         <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -1707,7 +1695,7 @@
   <dimension ref="B3:J22"/>
   <sheetViews>
     <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="D18" sqref="D17:D18"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1723,7 +1711,7 @@
   <sheetData>
     <row r="3" spans="2:10" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="11" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -1762,13 +1750,13 @@
         <v>2</v>
       </c>
       <c r="G5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="I5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>3</v>
@@ -1779,28 +1767,28 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
@@ -1808,26 +1796,26 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.15">
@@ -1835,26 +1823,26 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
@@ -1862,13 +1850,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>12</v>
@@ -1883,24 +1871,24 @@
         <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
@@ -1908,21 +1896,21 @@
         <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J11" s="2"/>
     </row>
@@ -1931,24 +1919,24 @@
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
@@ -1956,13 +1944,13 @@
         <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>12</v>
@@ -1971,7 +1959,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.15">
@@ -1979,13 +1967,13 @@
         <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>12</v>
@@ -2000,13 +1988,13 @@
         <v>10</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>12</v>
@@ -2015,7 +2003,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.15">
@@ -2023,22 +2011,22 @@
         <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.15">
@@ -2046,16 +2034,16 @@
         <v>12</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -2067,16 +2055,16 @@
         <v>13</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -2121,10 +2109,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J22"/>
+  <dimension ref="B3:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D12:D13"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2140,7 +2128,7 @@
   <sheetData>
     <row r="3" spans="2:10" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="11" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -2179,13 +2167,13 @@
         <v>2</v>
       </c>
       <c r="G5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="I5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>3</v>
@@ -2196,28 +2184,28 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
@@ -2225,53 +2213,53 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B8" s="2">
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
@@ -2279,91 +2267,85 @@
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>66</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B10" s="2">
         <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B11" s="2">
         <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>68</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="3"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B12" s="2">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -2371,25 +2353,15 @@
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="2">
-        <v>8</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="3"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B14" s="7"/>
@@ -2400,7 +2372,7 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="J14" s="9"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B15" s="7"/>
@@ -2408,21 +2380,17 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="9"/>
+      <c r="J15" s="7"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C17" s="1"/>
@@ -2450,19 +2418,12 @@
       <c r="D20" s="1"/>
       <c r="F20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="F21" s="1"/>
       <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="I22" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
